--- a/input/shelves.xlsx
+++ b/input/shelves.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syrine Frini\Documents\VF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Syrine Frini\Documents\VF\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ACB5AEE-E79F-4F08-AF57-DA491C1FB048}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C80049-94B4-4FD3-99D7-404224E2CB7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D2" sqref="D2:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -402,7 +402,7 @@
         <v>50</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -416,7 +416,7 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -430,7 +430,7 @@
         <v>100</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -444,7 +444,7 @@
         <v>100</v>
       </c>
       <c r="D5">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -458,7 +458,7 @@
         <v>50</v>
       </c>
       <c r="D6">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -472,7 +472,7 @@
         <v>50</v>
       </c>
       <c r="D7">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -486,7 +486,7 @@
         <v>100</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -500,7 +500,7 @@
         <v>100</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -514,7 +514,7 @@
         <v>50</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>
